--- a/Docs/DBStructure.xlsx
+++ b/Docs/DBStructure.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bd_system" sheetId="1" r:id="rId1"/>
     <sheet name="bd_baraban" sheetId="2" r:id="rId2"/>
     <sheet name="bd_cable" sheetId="3" r:id="rId3"/>
+    <sheet name="db_sak" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="137">
   <si>
     <t>DolshNum</t>
   </si>
@@ -151,6 +152,282 @@
   </si>
   <si>
     <t>Ссылается на экземпляр norm_docum</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>third_name</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>employee number</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>ref to roles</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>migrate_to</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>struct_name</t>
+  </si>
+  <si>
+    <t>build_length</t>
+  </si>
+  <si>
+    <t>document_id</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>ref to documents</t>
+  </si>
+  <si>
+    <t>примечание</t>
+  </si>
+  <si>
+    <t>linear_mass</t>
+  </si>
+  <si>
+    <t>float Default NULL</t>
+  </si>
+  <si>
+    <t>INT UNSIGNED NOT NULL</t>
+  </si>
+  <si>
+    <t>INT UNSIGNED AUTO_INCREMENT NOT NULL</t>
+  </si>
+  <si>
+    <t>TINYTEXT</t>
+  </si>
+  <si>
+    <t>code_okp</t>
+  </si>
+  <si>
+    <t>CHAR(12)</t>
+  </si>
+  <si>
+    <t>code_kch</t>
+  </si>
+  <si>
+    <t>CHAR(2)</t>
+  </si>
+  <si>
+    <t>u_cover</t>
+  </si>
+  <si>
+    <t>FLOAT DEFAULT NULL</t>
+  </si>
+  <si>
+    <t>p_min</t>
+  </si>
+  <si>
+    <t>p_max</t>
+  </si>
+  <si>
+    <t>documents</t>
+  </si>
+  <si>
+    <t>standart_name</t>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+  </si>
+  <si>
+    <t>lead_materials</t>
+  </si>
+  <si>
+    <t>Ro_T</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T_r0</t>
+  </si>
+  <si>
+    <t>TKC_1</t>
+  </si>
+  <si>
+    <t>FLOAT DEFAULT 0</t>
+  </si>
+  <si>
+    <t>TKC_2</t>
+  </si>
+  <si>
+    <t>TKC_3</t>
+  </si>
+  <si>
+    <t>Tab_TKC</t>
+  </si>
+  <si>
+    <t>BOOL DEFAULT 0</t>
+  </si>
+  <si>
+    <t>lead_material_tcoeffs</t>
+  </si>
+  <si>
+    <t>INT UNSIGNED</t>
+  </si>
+  <si>
+    <t>lead_material_id</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>isolation_materials</t>
+  </si>
+  <si>
+    <t>coeff_val</t>
+  </si>
+  <si>
+    <t>isolation_material_tcoeffs</t>
+  </si>
+  <si>
+    <t>isolation_material_id</t>
+  </si>
+  <si>
+    <t>baraban_types</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>barabans</t>
+  </si>
+  <si>
+    <t>baraban_type_id</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>VARCHAR(120)</t>
+  </si>
+  <si>
+    <t>leads_number</t>
+  </si>
+  <si>
+    <t>TINYINT UNSIGNED</t>
+  </si>
+  <si>
+    <t>SET ('1','2','3','4','5','6','7','8','9','10','11','12','13','14','15','16','17') DEFAULT '1'</t>
+  </si>
+  <si>
+    <t>cable_structure_types  (Tipy_Poviv)</t>
+  </si>
+  <si>
+    <t>Количество жил в структуре</t>
+  </si>
+  <si>
+    <t>measured_params</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>measure_of</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>мера измерения</t>
+  </si>
+  <si>
+    <t>cable_structure_id</t>
+  </si>
+  <si>
+    <t>measured_parameter_types (Ism_Param)</t>
+  </si>
+  <si>
+    <t>cable_id</t>
+  </si>
+  <si>
+    <t>measured_parameter_type_id</t>
+  </si>
+  <si>
+    <t>measured_parameter_values (Param_Data)</t>
+  </si>
+  <si>
+    <t>min_val</t>
+  </si>
+  <si>
+    <t>max_val</t>
+  </si>
+  <si>
+    <t>bringing_length</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>FLOAT DEFAULT 100.0</t>
+  </si>
+  <si>
+    <t>frequency_range_id</t>
+  </si>
+  <si>
+    <t>INT UNSIGNED DEFAULT NULL</t>
+  </si>
+  <si>
+    <t>ссылка на диапазон частот</t>
+  </si>
+  <si>
+    <t>длина приведения</t>
+  </si>
+  <si>
+    <t>тип приведения к длинне</t>
+  </si>
+  <si>
+    <t>ссылка на структуру</t>
+  </si>
+  <si>
+    <t>ссылка на кабель</t>
+  </si>
+  <si>
+    <t>bringing_length_type_id</t>
+  </si>
+  <si>
+    <t>bringing_length_types (Lpriv_Tip )</t>
+  </si>
+  <si>
+    <t>frequency_ranges (Freq_Diap)</t>
+  </si>
+  <si>
+    <t>freq_min</t>
+  </si>
+  <si>
+    <t>freq_max</t>
+  </si>
+  <si>
+    <t>freq_step</t>
   </si>
 </sst>
 </file>
@@ -237,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -252,7 +529,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -557,26 +840,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+      <selection activeCell="E12" sqref="E12:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -587,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -609,14 +896,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -627,7 +914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -638,7 +925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -649,7 +936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -658,6 +945,9 @@
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,16 +1014,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -833,23 +1123,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -995,11 +1285,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1052,4 +1342,1064 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="3" max="3" width="62.375" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B40:D40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/Docs/DBStructure.xlsx
+++ b/Docs/DBStructure.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="159">
   <si>
     <t>DolshNum</t>
   </si>
@@ -253,9 +253,6 @@
     <t>documents</t>
   </si>
   <si>
-    <t>standart_name</t>
-  </si>
-  <si>
     <t>VARCHAR(1000)</t>
   </si>
   <si>
@@ -428,6 +425,75 @@
   </si>
   <si>
     <t>freq_step</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>dr_bringing_formuls</t>
+  </si>
+  <si>
+    <t>dr_formuls</t>
+  </si>
+  <si>
+    <t>cable_structures</t>
+  </si>
+  <si>
+    <t>structure_type_id</t>
+  </si>
+  <si>
+    <t>nominal_amount</t>
+  </si>
+  <si>
+    <t>fact_amount</t>
+  </si>
+  <si>
+    <t>Номинальное количество</t>
+  </si>
+  <si>
+    <t>Фактическое значение</t>
+  </si>
+  <si>
+    <t>FLOAT NOT NULL</t>
+  </si>
+  <si>
+    <t>lead_diameter</t>
+  </si>
+  <si>
+    <t>wave_resistance</t>
+  </si>
+  <si>
+    <t>u_lead_lead</t>
+  </si>
+  <si>
+    <t>u_lead_shield</t>
+  </si>
+  <si>
+    <t>Испытательное напряжение Жила-Жила</t>
+  </si>
+  <si>
+    <t>test_group_work_capacity</t>
+  </si>
+  <si>
+    <t>измерять или нет групповую рабочую емкость</t>
+  </si>
+  <si>
+    <t>dr_formula_id</t>
+  </si>
+  <si>
+    <t>dr_bringing_formula_id</t>
+  </si>
+  <si>
+    <t>INT UNSIGNED DEFAULT 1</t>
+  </si>
+  <si>
+    <t>Испытательное напряжение Жила-Экран</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>full_name</t>
   </si>
 </sst>
 </file>
@@ -487,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -510,11 +576,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -532,10 +635,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -857,11 +963,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -897,11 +1003,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1019,11 +1125,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1135,11 +1241,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1285,11 +1391,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1346,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D118"/>
+  <dimension ref="A2:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,15 +1463,15 @@
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="62.375" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1467,11 +1573,11 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -1506,14 +1612,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1524,7 +1630,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1535,7 +1644,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1546,7 +1658,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
@@ -1557,7 +1672,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
@@ -1568,7 +1686,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
@@ -1579,7 +1700,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
@@ -1590,7 +1714,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>64</v>
       </c>
@@ -1601,7 +1728,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
@@ -1612,7 +1742,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>71</v>
       </c>
@@ -1623,7 +1756,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>73</v>
       </c>
@@ -1634,7 +1770,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>75</v>
       </c>
@@ -1645,7 +1784,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>76</v>
       </c>
@@ -1657,11 +1799,11 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
@@ -1687,7 +1829,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>68</v>
@@ -1698,21 +1840,21 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
@@ -1749,10 +1891,10 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>7</v>
@@ -1760,55 +1902,55 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
@@ -1823,7 +1965,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>66</v>
@@ -1834,10 +1976,10 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>7</v>
@@ -1845,19 +1987,19 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="1"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="B57" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
@@ -1893,11 +2035,11 @@
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="B62" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
@@ -1912,7 +2054,7 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>66</v>
@@ -1923,10 +2065,10 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>7</v>
@@ -1934,19 +2076,19 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66" s="1"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+      <c r="B68" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
@@ -1983,21 +2125,21 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
@@ -2023,7 +2165,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>66</v>
@@ -2034,7 +2176,7 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>68</v>
@@ -2044,11 +2186,11 @@
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="B80" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
@@ -2077,7 +2219,7 @@
         <v>46</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>7</v>
@@ -2085,30 +2227,30 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D84" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D85" s="1"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
+      <c r="B87" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
@@ -2137,7 +2279,7 @@
         <v>46</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>7</v>
@@ -2145,18 +2287,18 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>68</v>
@@ -2164,11 +2306,11 @@
       <c r="D92" s="1"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+      <c r="B95" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
@@ -2183,103 +2325,103 @@
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D105" s="10" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
+      <c r="B107" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
@@ -2297,7 +2439,7 @@
         <v>45</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>7</v>
@@ -2308,7 +2450,7 @@
         <v>46</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>7</v>
@@ -2316,7 +2458,7 @@
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>68</v>
@@ -2324,11 +2466,11 @@
       <c r="D111" s="1"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
+      <c r="B113" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
@@ -2354,7 +2496,7 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>66</v>
@@ -2365,7 +2507,7 @@
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>66</v>
@@ -2374,32 +2516,360 @@
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D118" s="1"/>
     </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>4</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>5</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>6</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>7</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>8</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>9</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>10</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>11</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>12</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D150" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B74:D74"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B87:D87"/>
     <mergeCell ref="B95:D95"/>
     <mergeCell ref="B107:D107"/>
     <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>